--- a/calculators/basic orbit calculator.xlsx
+++ b/calculators/basic orbit calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacfoster/My Drive/Projects/Orbital Mechanics/Parambulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacfoster/My Drive/Projects/Orbital Mechanics/parambulator/calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015DC3EB-1146-3941-9B9F-8B5B742268CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3B7FE2-AF51-DE48-B0B8-8941C69D293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{B3B253B2-74AE-5A4D-BAC3-F659F21F5A8A}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{B3B253B2-74AE-5A4D-BAC3-F659F21F5A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartesian-to-Keplerian" sheetId="1" r:id="rId1"/>
@@ -210,6 +210,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,16 +358,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94149341-60C9-3B44-98AE-3F9E23D8B7BC}">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,14 +731,14 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>7000</v>
+      <c r="D4" s="12">
+        <v>8000</v>
       </c>
       <c r="E4" s="3">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="F4" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>
@@ -748,14 +751,14 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>5</v>
@@ -768,9 +771,8 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
-        <f>D1</f>
-        <v>398600</v>
+      <c r="D6" s="13">
+        <v>398600.43289693899</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>54</v>
@@ -778,7 +780,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -786,9 +790,9 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <f>D26</f>
-        <v>35776.437209756172</v>
+        <v>7456.9891279729654</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
@@ -803,7 +807,7 @@
       </c>
       <c r="D9" s="11">
         <f>D29</f>
-        <v>0.79501424623936268</v>
+        <v>0.89765466467796973</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>55</v>
@@ -818,7 +822,7 @@
       </c>
       <c r="D10" s="11">
         <f>D31</f>
-        <v>23.75620534909547</v>
+        <v>2.6990305102254761</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>28</v>
@@ -833,7 +837,7 @@
       </c>
       <c r="D11" s="11">
         <f>D36</f>
-        <v>75.108742189764868</v>
+        <v>45.001327204055606</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>28</v>
@@ -848,7 +852,7 @@
       </c>
       <c r="D12" s="11">
         <f>D40</f>
-        <v>54.125897597527654</v>
+        <v>193.72889377665285</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>28</v>
@@ -863,7 +867,7 @@
       </c>
       <c r="D13" s="11">
         <f>D42</f>
-        <v>23.707779710815398</v>
+        <v>166.27110622334715</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
@@ -883,7 +887,7 @@
       </c>
       <c r="D15" s="11">
         <f>D52</f>
-        <v>64219.214471200365</v>
+        <v>14150.790203150804</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -896,13 +900,16 @@
       <c r="C16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <f>D51</f>
-        <v>7333.6599483119817</v>
+        <v>763.18805279512731</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -913,7 +920,7 @@
       </c>
       <c r="D18" s="11">
         <f>SQRT(D4^2 + E4^2 + F4^2)</f>
-        <v>7618.3987818963642</v>
+        <v>11313.708498984761</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -928,7 +935,7 @@
       </c>
       <c r="D19" s="11">
         <f>SQRT(D5^2 + E5^2 + F5^2)</f>
-        <v>9.6695398029068578</v>
+        <v>4.1243181254602561</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
@@ -946,15 +953,15 @@
       </c>
       <c r="D21" s="11">
         <f>E4*F5-F4*E5</f>
-        <v>-28200</v>
+        <v>800</v>
       </c>
       <c r="E21" s="1">
         <f>-(D4*F5-F4*D5)</f>
-        <v>-7500</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="1">
         <f>D4*E5-E4*D5</f>
-        <v>66300</v>
+        <v>24000</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -969,7 +976,7 @@
       </c>
       <c r="D22" s="11">
         <f>SQRT(D21^2 + E21^2 + F21^2)</f>
-        <v>72437.42126829199</v>
+        <v>24026.65186828993</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -987,7 +994,7 @@
       </c>
       <c r="D24" s="11">
         <f>(D19^2)/2 - D6/D18</f>
-        <v>-5.5707056248085891</v>
+        <v>-26.726633635664868</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1005,7 +1012,7 @@
       </c>
       <c r="D26" s="11">
         <f>(-D6)/(2*D24)</f>
-        <v>35776.437209756172</v>
+        <v>7456.9891279729654</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -1023,15 +1030,15 @@
       </c>
       <c r="D28" s="11">
         <f>(1/$D6)*(($D19^2-$D6/$D18)*D4-($D4*$D5+$E4*$E5+$F4*$F5)*D5)</f>
-        <v>0.68955108034706447</v>
+        <v>-0.46606339018540888</v>
       </c>
       <c r="E28" s="1">
         <f>(1/$D6)*(($D19^2-$D6/$D18)*E4-($D4*$D5+$E4*$E5+$F4*$F5)*E5)</f>
-        <v>-0.29870582319358185</v>
+        <v>-0.76711675113604005</v>
       </c>
       <c r="F28" s="1">
         <f>(1/$D6)*(($D19^2-$D6/$D18)*F4-($D4*$D5+$E4*$E5+$F4*$F5)*F5)</f>
-        <v>0.25950296820264485</v>
+        <v>-1.0035112031687705E-2</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>55</v>
@@ -1046,7 +1053,7 @@
       </c>
       <c r="D29" s="11">
         <f>SQRT(D28^2 + E28^2 + F28^2)</f>
-        <v>0.79501424623936268</v>
+        <v>0.89765466467796973</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>55</v>
@@ -1064,7 +1071,7 @@
       </c>
       <c r="D31" s="11">
         <f>ACOS(F21/D22)*(180/3.1415)</f>
-        <v>23.75620534909547</v>
+        <v>2.6990305102254761</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
@@ -1082,11 +1089,11 @@
       </c>
       <c r="D33" s="11">
         <f>-E21</f>
-        <v>7500</v>
+        <v>800</v>
       </c>
       <c r="E33" s="1">
         <f>+D21</f>
-        <v>-28200</v>
+        <v>800</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1096,12 +1103,12 @@
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="11">
         <f>SQRT(D33^2 + E33^2 + F33^2)</f>
-        <v>29180.301574863821</v>
+        <v>1131.3708498984761</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -1116,7 +1123,7 @@
       </c>
       <c r="D36" s="11">
         <f>ACOS(D33/D34)*(180/3.1415)</f>
-        <v>75.108742189764868</v>
+        <v>45.001327204055606</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
@@ -1134,7 +1141,7 @@
       </c>
       <c r="D38" s="11">
         <f>D4*D5+E4*E5+F4*F5</f>
-        <v>13400</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -1149,7 +1156,7 @@
       </c>
       <c r="D40" s="11">
         <f>IF(F28&lt;0,360-ACOS((D33*D28+E33*E28+F33*F28)/(D29*D34))*(180/3.1415),ACOS((D33*D28+E33*E28+F33*F28)/(D29*D34))*(180/3.1415))</f>
-        <v>54.125897597527654</v>
+        <v>193.72889377665285</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
@@ -1167,7 +1174,7 @@
       </c>
       <c r="D42" s="11">
         <f>IF(D38&lt;0,360-ACOS((D28*D4+E28*E4+F28*F4)/(D18*D29))*(180/3.1415),ACOS((D28*D4+E28*E4+F28*F4)/(D18*D29))*(180/3.1415))</f>
-        <v>23.707779710815398</v>
+        <v>166.27110622334715</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>28</v>
@@ -1185,7 +1192,7 @@
       </c>
       <c r="D44" s="11">
         <f>ATAN(TAN(D42*(3.1415/180)*0.5)*SQRT((1-D29)/(1+D29)))*2*(180/3.1415)</f>
-        <v>8.1142944681411517</v>
+        <v>125.18479864543391</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>28</v>
@@ -1203,7 +1210,7 @@
       </c>
       <c r="D46" s="11">
         <f>D44-D29*SIN(D44*(3.1415/180))*(180/3.1415)</f>
-        <v>1.6848559514732493</v>
+        <v>83.146532594678732</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
@@ -1218,7 +1225,7 @@
       </c>
       <c r="D47" s="11">
         <f>IF(D46&lt;0,D46+360,D46)</f>
-        <v>1.6848559514732493</v>
+        <v>83.146532594678732</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
@@ -1236,7 +1243,7 @@
       </c>
       <c r="D49" s="11">
         <f>(2*3.1415*SQRT(D26^3/D6))/(60*60)</f>
-        <v>18.706457243408554</v>
+        <v>1.780085820569705</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>52</v>
@@ -1254,7 +1261,7 @@
       </c>
       <c r="D51" s="11">
         <f>D26*(1-D29)</f>
-        <v>7333.6599483119817</v>
+        <v>763.18805279512731</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
@@ -1269,7 +1276,7 @@
       </c>
       <c r="D52" s="11">
         <f>D26*(1+D29)</f>
-        <v>64219.214471200365</v>
+        <v>14150.790203150804</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>4</v>
